--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1655407.290447755</v>
+        <v>1629063.987573213</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.1845461973512</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>24.95505229511726</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>46.38724422570589</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.170977004479174</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>196.9826481283071</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>179.3283639330482</v>
       </c>
       <c r="X6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,73 +1130,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>180.1159031720507</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>66.52200288537669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.53500625286609</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2248,61 +2248,61 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>136.2074941398002</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>91.56533252450006</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>23.81301614990497</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.800737056637706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>179.4243941631746</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>33.80371536444981</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>57.894657921649</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>117.530383720924</v>
       </c>
     </row>
     <row r="31">
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,73 +3026,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>151.5987879119431</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>71.40950232720051</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>42.04748827521355</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>69.03881051849282</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3515,55 +3515,55 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.90725545139051</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>84.93132355949651</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>142.0523914963076</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>65.1337105787572</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="E2" t="n">
-        <v>26.68381369134799</v>
+        <v>178.5101703859089</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>124.457110779899</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,16 +4334,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4352,28 +4352,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.68381369134799</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.89093722176946</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4416,43 +4416,43 @@
         <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4510,28 +4510,28 @@
         <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4607,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>454.3181732824481</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>387.1242309739868</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X9" t="n">
-        <v>179.2727307684539</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>262.7299197543128</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5236,13 +5236,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="14">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5364,43 +5364,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N15" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N15" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T15" t="n">
-        <v>817.1412885554689</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U15" t="n">
-        <v>817.1412885554689</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V15" t="n">
-        <v>817.1412885554689</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W15" t="n">
-        <v>817.1412885554689</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5695,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5950,10 +5950,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C24" t="n">
-        <v>259.0600686093459</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D24" t="n">
-        <v>259.0600686093459</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E24" t="n">
-        <v>166.5698337361135</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="25">
@@ -6175,7 +6175,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>319.0683498528888</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>319.0683498528888</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>319.0683498528888</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>159.8308948474333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>159.8308948474333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>21.10006943004879</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>21.10006943004879</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.2836868729568</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.2867411876791</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>384.2867411876791</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>384.2867411876791</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>225.0492861822236</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>78.51472820910854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>78.51472820910854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>384.2867411876791</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.2867411876791</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
         <v>829.5248650203655</v>
@@ -6649,22 +6649,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6780,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>617.3394710826751</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>617.3394710826751</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>382.1873628509324</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6874,34 +6874,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>62.50748614200202</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>894.3209832697344</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>666.0973650061235</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>430.9452567743808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>187.4964801302808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4964801302808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7111,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>872.2316449536761</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>872.2316449536761</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7445,16 +7445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>756.2056553051034</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C45" t="n">
-        <v>612.718391167419</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D45" t="n">
-        <v>463.7839815061678</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E45" t="n">
-        <v>304.5465265007123</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F45" t="n">
         <v>158.0119685275972</v>
@@ -7728,13 +7728,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2655286634067</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>724.8481841140756</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>724.8481841140756</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>724.8481841140756</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>724.8481841140756</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="X45" t="n">
-        <v>756.2056553051034</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="Y45" t="n">
-        <v>756.2056553051034</v>
+        <v>481.3994074699755</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
         <v>829.5248650203655</v>
@@ -7831,25 +7831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,7 +8784,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10905,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,7 +11154,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>268.9647026937786</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23577,22 +23577,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>54.71802040920599</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23735,22 +23735,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>123.8085460246003</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23935,13 +23935,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24060,16 +24060,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.8085109103446</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>36.50100484851558</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>66.07974793090088</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>199.2828334142264</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24525,25 +24525,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>87.59589579477738</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>26.25830161412975</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24695,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24728,7 +24728,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>54.34078631484746</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>88.15231205638032</v>
       </c>
     </row>
     <row r="31">
@@ -24856,13 +24856,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.93439573792423</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,22 +25044,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>128.7552263676211</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25172,7 +25172,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,22 +25202,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25233,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>115.5975921801874</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25284,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>131.1259181763288</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,25 +25433,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U38" t="n">
-        <v>217.5419375433867</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.250578701252621</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>141.0100585214783</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>77.57477008921587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,16 +25944,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>30.65610749200818</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>35.02412357388593</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
@@ -26332,16 +26332,16 @@
         <v>232624.9415438654</v>
       </c>
       <c r="I2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="J2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339491.5823438202</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180423.2155379716</v>
+        <v>178049.9234980965</v>
       </c>
       <c r="C6" t="n">
-        <v>173265.2691207316</v>
+        <v>170011.4306791285</v>
       </c>
       <c r="D6" t="n">
-        <v>233841.5913074</v>
+        <v>230587.7528657966</v>
       </c>
       <c r="E6" t="n">
-        <v>204310.4215807262</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="F6" t="n">
-        <v>204310.4215807262</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="G6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="H6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="I6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391228</v>
       </c>
       <c r="J6" t="n">
-        <v>190309.189440447</v>
+        <v>187055.3509988436</v>
       </c>
       <c r="K6" t="n">
-        <v>156053.4686470937</v>
+        <v>152799.6302054902</v>
       </c>
       <c r="L6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391228</v>
       </c>
       <c r="M6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="N6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391229</v>
       </c>
       <c r="O6" t="n">
-        <v>204310.4215807262</v>
+        <v>201056.5831391228</v>
       </c>
       <c r="P6" t="n">
-        <v>204310.4215807263</v>
+        <v>201056.5831391229</v>
       </c>
     </row>
   </sheetData>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>346.7458238749106</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>302.7972061750177</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.7774844691157</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>285.1480523520117</v>
+        <v>262.8785605261289</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,16 +27707,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>72.36661922787138</v>
       </c>
       <c r="X6" t="n">
-        <v>160.484111070505</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>51.30969674795439</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>202.6179384914298</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>185.1729802755429</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.1469913286911</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34702,19 +34702,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35504,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,7 +37874,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1629063.987573213</v>
+        <v>1631387.659387081</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
-        <v>35.1845461973512</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.00576294050475</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>53.51252900994975</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.38724422570588</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -826,61 +828,61 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>23.44046883036203</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>35.16424083254473</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>150.7948543003278</v>
       </c>
       <c r="W6" t="n">
-        <v>179.3283639330482</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>10.27068583523955</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>16.62553367015321</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="11">
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>176.8004988171164</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1627,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,52 +1858,52 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4132168533397</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>22.53500625286609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2181,7 +2183,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>19.16040078371821</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2399,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>136.2074941398002</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>108.9193184962173</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2634,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>179.4243941631746</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>22.11385945850858</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>117.530383720924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2968,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3038,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>71.40950232720051</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3351,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>42.04748827521355</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>39.77286532336496</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>75.72326547824598</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>84.93132355949651</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,55 +3672,55 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>212.285385643442</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>48.34508484837216</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,49 +3912,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,26 +3976,26 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.4132168533396</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>65.1337105787572</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>146.859922150451</v>
       </c>
       <c r="C2" t="n">
-        <v>214.050116039799</v>
+        <v>146.859922150451</v>
       </c>
       <c r="D2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>178.5101703859089</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>124.457110779899</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
         <v>70.40405117388919</v>
@@ -4331,19 +4333,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>110.2358097604965</v>
-      </c>
-      <c r="M2" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4355,25 +4357,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>146.859922150451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>113.1412541856014</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4416,43 +4418,43 @@
         <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
         <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.9875657500345</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>710.5695914167261</v>
       </c>
       <c r="W6" t="n">
-        <v>681.7478645149884</v>
+        <v>467.120814772626</v>
       </c>
       <c r="X6" t="n">
-        <v>681.7478645149884</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="Y6" t="n">
-        <v>473.9875657500345</v>
+        <v>259.2693145670932</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>243.8349102288568</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5150,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5266,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>934.7112791079849</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U15" t="n">
-        <v>706.487660844374</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V15" t="n">
-        <v>471.3355526126313</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W15" t="n">
-        <v>227.8867759685313</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="C21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>944.7032153250623</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>771.2858707757312</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>771.2858707757312</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>771.2858707757312</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="X21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y23" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U23" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C24" t="n">
-        <v>248.3115976704407</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D24" t="n">
-        <v>248.3115976704407</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3115976704407</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.9696854242497</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>518.4217842253022</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y27" t="n">
-        <v>337.1850224443177</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>216.071404167611</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6552,10 +6554,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
         <v>829.5248650203655</v>
@@ -6649,22 +6651,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>382.1873628509324</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>382.1873628509324</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>382.1873628509324</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6807,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>617.3394710826751</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="U33" t="n">
-        <v>617.3394710826751</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="V33" t="n">
-        <v>382.1873628509324</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="W33" t="n">
-        <v>382.1873628509324</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X33" t="n">
-        <v>382.1873628509324</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y33" t="n">
-        <v>382.1873628509324</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>385.8949250843803</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>211.4418958032533</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>62.50748614200202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.1102621044483</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>234.5001154753204</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>95.76929005793593</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>95.76929005793593</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>401.4944711562937</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>401.4944711562937</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>125.0774898247174</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F44" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>481.3994074699755</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C45" t="n">
-        <v>306.9463781888485</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D45" t="n">
-        <v>158.0119685275972</v>
+        <v>156.0621702347982</v>
       </c>
       <c r="E45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7734,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>898.2655286634067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>481.3994074699755</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>481.3994074699755</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>481.3994074699755</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8784,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P15" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11154,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>28.88219696018791</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>268.9647026937786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,7 +23515,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.10541651401829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>123.8085460246003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>97.38737029608561</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>114.8085109103446</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.99743336892493</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>36.50100484851558</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>36.14989389716659</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.25830161412975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>122.9553529348753</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.15231205638032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24856,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>30.46185652629862</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,13 +25049,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>128.7552263676211</v>
+        <v>82.34845141662868</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,19 +25204,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>189.2921341996816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25239,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>115.5975921801874</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>309.4681033940481</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25479,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>13.6733673731691</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>141.0100585214783</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.397655977241</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>118.1880988014952</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>22.23186360206134</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.02412357388593</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="H2" t="n">
+        <v>232624.9415438653</v>
+      </c>
+      <c r="I2" t="n">
         <v>232624.9415438654</v>
-      </c>
-      <c r="I2" t="n">
-        <v>232624.9415438653</v>
       </c>
       <c r="J2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="M2" t="n">
         <v>232624.9415438654</v>
@@ -26350,7 +26352,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,7 +26420,7 @@
         <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
@@ -26442,7 +26444,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="L4" t="n">
         <v>16914.68964098084</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178049.9234980965</v>
+        <v>178049.9234980964</v>
       </c>
       <c r="C6" t="n">
-        <v>170011.4306791285</v>
+        <v>170011.4306791282</v>
       </c>
       <c r="D6" t="n">
-        <v>230587.7528657966</v>
+        <v>230587.7528657965</v>
       </c>
       <c r="E6" t="n">
-        <v>201056.5831391229</v>
+        <v>201056.5831391228</v>
       </c>
       <c r="F6" t="n">
-        <v>201056.5831391229</v>
+        <v>201056.583139123</v>
       </c>
       <c r="G6" t="n">
         <v>201056.5831391229</v>
       </c>
       <c r="H6" t="n">
+        <v>201056.5831391228</v>
+      </c>
+      <c r="I6" t="n">
         <v>201056.5831391229</v>
-      </c>
-      <c r="I6" t="n">
-        <v>201056.5831391228</v>
       </c>
       <c r="J6" t="n">
         <v>187055.3509988436</v>
       </c>
       <c r="K6" t="n">
-        <v>152799.6302054902</v>
+        <v>152799.6302054903</v>
       </c>
       <c r="L6" t="n">
-        <v>201056.5831391228</v>
+        <v>201056.583139123</v>
       </c>
       <c r="M6" t="n">
         <v>201056.5831391229</v>
@@ -27382,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7458238749106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>373.2321757155489</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>58.72291522654671</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.7774844691157</v>
+        <v>153.0308931428578</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>201.783679862813</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8785605261289</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>154.3469453318533</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>371.7118049091667</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,7 +27663,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27752,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>82.00573284909743</v>
       </c>
       <c r="W6" t="n">
-        <v>72.36661922787138</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.6179384914298</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27985,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5299013141857</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.1469913286911</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="N2" t="n">
         <v>51.35040662570936</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P15" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1631387.659387081</v>
+        <v>1562536.362945644</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.891109467671361</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.00576294050475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570586</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>26.16190956546851</v>
       </c>
       <c r="T4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.16424083254473</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>150.7948543003278</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>82.28530073128384</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>232.3303155802432</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.27068583523955</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>68.31015748716329</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,52 +1381,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="I11" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.8004988171164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>50.05769526855297</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>22.23421475067887</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.29849136077078</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>135.4132168533397</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.26531605719669</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.16040078371821</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>89.14450579973423</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2320,20 +2320,20 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>108.9193184962173</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>150.4149128677507</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>184.3425663858818</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>22.11385945850858</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2970,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>117.8162772781929</v>
+        <v>152.4080189407508</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>39.77286532336496</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>75.72326547824598</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>8.185177288778306</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.34508484837216</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,13 +3836,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>132.0301668875175</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>241.0142888776591</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.4132168533396</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.859922150451</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="C2" t="n">
-        <v>146.859922150451</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024826</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O2" t="n">
         <v>214.050116039799</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.859922150451</v>
+        <v>85.86136179523773</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>112.3871215328157</v>
+        <v>51.89093722176944</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581695</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4515,7 +4515,7 @@
         <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
         <v>112.3871215328157</v>
@@ -4524,16 +4524,16 @@
         <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>82.32787816303323</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.2693145670932</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>710.5695914167261</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>467.120814772626</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>259.2693145670932</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.2693145670932</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4755,7 +4755,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E8" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,10 +4886,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
         <v>234.810827406191</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>895.0569964326935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
         <v>19.28114311021272</v>
@@ -5126,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W12" t="n">
-        <v>689.4702815141908</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X12" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>510.883919072659</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5217,31 +5217,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5317,13 +5317,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,43 +5366,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>913.4938269565423</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V15" t="n">
-        <v>678.3417187247995</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>168.215552771464</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>168.215552771464</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>199.6184517943211</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>86.24931620190038</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>827.2761283860507</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>583.8273517419507</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>375.9758515364179</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>168.215552771464</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5697,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>22.57944215788615</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E20" t="n">
-        <v>22.57944215788615</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F20" t="n">
-        <v>22.57944215788615</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G20" t="n">
-        <v>22.57944215788615</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V20" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>536.1337625439884</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>944.7032153250623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>771.2858707757312</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>771.2858707757312</v>
+        <v>874.0122001573693</v>
       </c>
       <c r="U21" t="n">
-        <v>771.2858707757312</v>
+        <v>645.7885818937584</v>
       </c>
       <c r="V21" t="n">
-        <v>536.1337625439884</v>
+        <v>645.7885818937584</v>
       </c>
       <c r="W21" t="n">
-        <v>536.1337625439884</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X21" t="n">
-        <v>536.1337625439884</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y21" t="n">
-        <v>536.1337625439884</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171.2153985321831</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6335,22 +6335,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X27" t="n">
-        <v>547.1910343172051</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y27" t="n">
-        <v>339.4307355522512</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6408,22 +6408,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>216.071404167611</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>41.61837488648402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>41.61837488648402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>41.61837488648402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D32" t="n">
-        <v>730.8505943024719</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E32" t="n">
-        <v>730.8505943024719</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F32" t="n">
-        <v>730.8505943024719</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G32" t="n">
-        <v>487.4018176583718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
+        <v>65.60123993063803</v>
+      </c>
+      <c r="M33" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>570.4639408291474</v>
+        <v>810.1096616310899</v>
       </c>
       <c r="U33" t="n">
-        <v>570.4639408291474</v>
+        <v>581.886043367479</v>
       </c>
       <c r="V33" t="n">
-        <v>570.4639408291474</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="W33" t="n">
-        <v>570.4639408291474</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="X33" t="n">
-        <v>570.4639408291474</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7052,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>926.4957180431458</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>718.6442178376129</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>510.883919072659</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>555.4877027295624</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C39" t="n">
-        <v>381.0346734484355</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D39" t="n">
-        <v>381.0346734484355</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E39" t="n">
-        <v>381.0346734484355</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F39" t="n">
-        <v>234.5001154753204</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G39" t="n">
-        <v>95.76929005793593</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>95.76929005793593</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>555.4877027295624</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W39" t="n">
-        <v>555.4877027295624</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X39" t="n">
-        <v>555.4877027295624</v>
+        <v>417.2810673432945</v>
       </c>
       <c r="Y39" t="n">
-        <v>555.4877027295624</v>
+        <v>417.2810673432945</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7368,16 +7368,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7456,7 +7456,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>640.636862475431</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C42" t="n">
-        <v>466.183833194304</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D42" t="n">
-        <v>317.2494235330527</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E42" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>262.7299197543128</v>
@@ -7672,13 +7672,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
         <v>749.627473042513</v>
@@ -7687,13 +7687,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>156.0621702347982</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7827,13 +7827,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
         <v>19.28114311021272</v>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065407</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
@@ -8066,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>106.6417163796168</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>120.95432585209</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.88219696018791</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>183.5387704527986</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23779,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>23.0981414906443</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>97.38737029608561</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23971,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>8.683973297415827</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.99743336892493</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>111.0202228950874</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>142.491388590837</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24153,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24208,10 +24208,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>36.14989389716659</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,19 +24338,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>173.6665336844493</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>22.29358612056504</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>41.59881569509307</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>122.9553529348753</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24858,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,7 +24973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>30.46185652629862</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>82.34845141662868</v>
+        <v>47.75670975407078</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25213,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25292,10 +25292,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>309.4681033940481</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>13.6733673731691</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>197.5878079146992</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25696,7 +25696,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>118.1880988014952</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,13 +25724,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>73.65252888978685</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,7 +25879,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>98.46051323810809</v>
@@ -25912,22 +25912,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25949,10 +25949,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>22.23186360206134</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.5694590751</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365672.5694590752</v>
+        <v>365672.569459075</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365672.569459075</v>
+        <v>365672.5694590752</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="F2" t="n">
         <v>232624.9415438653</v>
       </c>
-      <c r="F2" t="n">
-        <v>232624.9415438655</v>
-      </c>
       <c r="G2" t="n">
+        <v>232624.9415438653</v>
+      </c>
+      <c r="H2" t="n">
         <v>232624.9415438654</v>
-      </c>
-      <c r="H2" t="n">
-        <v>232624.9415438653</v>
       </c>
       <c r="I2" t="n">
         <v>232624.9415438654</v>
@@ -26340,13 +26340,13 @@
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="N2" t="n">
         <v>232624.9415438654</v>
@@ -26355,7 +26355,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836956</v>
+        <v>341864.8743836957</v>
       </c>
       <c r="C4" t="n">
+        <v>295860.2172754402</v>
+      </c>
+      <c r="D4" t="n">
         <v>295860.2172754403</v>
-      </c>
-      <c r="D4" t="n">
-        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>16914.68964098084</v>
@@ -26444,7 +26444,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
         <v>16914.68964098084</v>
@@ -26453,7 +26453,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="O4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178049.9234980964</v>
+        <v>178049.9234980963</v>
       </c>
       <c r="C6" t="n">
-        <v>170011.4306791282</v>
+        <v>170011.4306791285</v>
       </c>
       <c r="D6" t="n">
-        <v>230587.7528657965</v>
+        <v>230587.7528657963</v>
       </c>
       <c r="E6" t="n">
-        <v>201056.5831391228</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="F6" t="n">
-        <v>201056.583139123</v>
+        <v>188838.5725190823</v>
       </c>
       <c r="G6" t="n">
-        <v>201056.5831391229</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="H6" t="n">
-        <v>201056.5831391228</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="I6" t="n">
-        <v>201056.5831391229</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="J6" t="n">
-        <v>187055.3509988436</v>
+        <v>174837.3403788032</v>
       </c>
       <c r="K6" t="n">
-        <v>152799.6302054903</v>
+        <v>140581.6195854497</v>
       </c>
       <c r="L6" t="n">
-        <v>201056.583139123</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="M6" t="n">
-        <v>201056.5831391229</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="N6" t="n">
-        <v>201056.5831391229</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="O6" t="n">
-        <v>201056.5831391228</v>
+        <v>188838.5725190824</v>
       </c>
       <c r="P6" t="n">
-        <v>201056.5831391229</v>
+        <v>188838.5725190823</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>213.20474009646</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601851</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.2321757155489</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>153.0308931428578</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27587,22 +27587,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>197.8546884715037</v>
       </c>
       <c r="T4" t="n">
-        <v>201.783679862813</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>371.7118049091667</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>82.00573284909743</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>123.3973950460205</v>
       </c>
     </row>
     <row r="7">
@@ -27827,10 +27827,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>174.5457301614682</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>222.5299013141857</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>137.3725382901411</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9091475161415</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
